--- a/Datos/Database by set/Set with text box/Xlsx sets/Arena New Player Experience Cards (OANA).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Arena New Player Experience Cards (OANA).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,455 +444,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angelic Reward</t>
+          <t>('Angelic Reward', ['{3}{W}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +3/+3 and has flying.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{W}{W}</t>
+          <t>('Confront the Assault', ['{4}{W}', 'Instant', 'Cast this spell only if a creature is attacking you.', 'Create three 1/1 white Spirit creature tokens with flying.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Enchantment — Aura</t>
+          <t>('Feral Roar', ['{1}{G}', 'Sorcery', 'Target creature gets +4/+4 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Enchant creature</t>
+          <t>('Inspiring Commander', ['{4}{W}{W}', 'Creature — Human Soldier', 'Whenever another creature with power 2 or less enters the battlefield under your control, you gain 1 life and draw a card.', '1/4'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Enchanted creature gets +3/+3 and has flying.</t>
+          <t>("Knight's Pledge", ['{1}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Confront the Assault</t>
+          <t>('Raging Goblin', ['{R}', 'Creature — Goblin Berserker', 'Haste (This creature can attack and {T} as soon as it comes under your control.)', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{4}{W}</t>
+          <t>("River's Favor", ['{U}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +1/+1.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Sanctuary Cat', ['{W}', 'Creature — Cat', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cast this spell only if a creature is attacking you.</t>
+          <t>('Serra Angel', ['{3}{W}{W}', 'Creature — Angel', 'Flying, vigilance', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Create three 1/1 white Spirit creature tokens with flying.</t>
+          <t>('Shrine Keeper', ['{W}{W}', 'Creature — Human Cleric', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Feral Roar</t>
+          <t>('Spiritual Guardian', ['{3}{W}{W}', 'Creature — Spirit', 'When Spiritual Guardian enters the battlefield, you gain 4 life.', '3/4'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{1}{G}</t>
+          <t>('Tactical Advantage', ['{W}', 'Instant', 'Target blocking or blocked creature you control gets +2/+2 until end of turn.'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Treetop Warden', ['{1}{G}', 'Creature — Elf Warrior', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Target creature gets +4/+4 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Inspiring Commander</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>{4}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Creature — Human Soldier</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Whenever another creature with power 2 or less enters the battlefield under your control, you gain 1 life and draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Knight's Pledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{1}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Enchantment — Aura</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Enchant creature</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Enchanted creature gets +2/+2.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Raging Goblin</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Creature — Goblin Berserker</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Haste (This creature can attack and {T} as soon as it comes under your control.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>River's Favor</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Enchantment — Aura</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Enchant creature</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Enchanted creature gets +1/+1.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Sanctuary Cat</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Creature — Cat</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Serra Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{3}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Flying, vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Shrine Keeper</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Creature — Human Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Spiritual Guardian</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>{3}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>When Spiritual Guardian enters the battlefield, you gain 4 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>3/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Tactical Advantage</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Target blocking or blocked creature you control gets +2/+2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Treetop Warden</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Creature — Elf Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Zephyr Gull</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Creature — Bird</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Zephyr Gull', ['{U}', 'Creature — Bird', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
